--- a/trunk/resource/templates/excel_template_short.xlsx
+++ b/trunk/resource/templates/excel_template_short.xlsx
@@ -402,6 +402,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -453,6 +456,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>